--- a/Organisation/Aufwandserfassung/Achim/Aufwandserfassung_Achim_KW10.xlsx
+++ b/Organisation/Aufwandserfassung/Achim/Aufwandserfassung_Achim_KW10.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Aufwandserfassung</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Meeting: Aufgabenverteilung, Struktur</t>
+  </si>
+  <si>
+    <t>Überarbeitung Projektzielsetzung</t>
+  </si>
+  <si>
+    <t>Arbeitsrichtlinien</t>
   </si>
 </sst>
 </file>
@@ -223,26 +229,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +564,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,35 +578,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -615,10 +621,10 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -630,52 +636,52 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
@@ -688,11 +694,11 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
@@ -704,11 +710,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
@@ -720,11 +726,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
@@ -736,11 +742,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
@@ -752,202 +758,232 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="6">
         <f>SUM(F12:F31)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6">
         <f>COUNT(F12:F31)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6">
         <f>D33/D34</f>
-        <v>1.75</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="1" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
@@ -960,25 +996,11 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
